--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220621.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220621.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$A$1:$A$340</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -3535,15 +3538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -3579,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>5.174</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>7.059</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>4.493</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:7">
+    <row r="10" ht="28" hidden="1" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>9.172</v>
       </c>
     </row>
-    <row r="11" ht="55" spans="1:7">
+    <row r="11" ht="55" hidden="1" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>2.915</v>
       </c>
     </row>
-    <row r="12" ht="82" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>11.076</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>7.938</v>
       </c>
     </row>
-    <row r="14" ht="55" spans="1:7">
+    <row r="14" ht="55" hidden="1" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>6.614</v>
       </c>
     </row>
-    <row r="15" ht="55" spans="1:7">
+    <row r="15" ht="55" hidden="1" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>7.559</v>
       </c>
     </row>
-    <row r="16" ht="41" spans="1:7">
+    <row r="16" ht="41" hidden="1" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>2.872</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>5.466</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>7.926</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:7">
+    <row r="19" ht="28" hidden="1" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>7.485</v>
       </c>
     </row>
-    <row r="20" ht="41" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>16.573</v>
       </c>
     </row>
-    <row r="21" ht="41" spans="1:7">
+    <row r="21" ht="41" hidden="1" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>23.699</v>
       </c>
     </row>
-    <row r="22" ht="41" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>5.732</v>
       </c>
     </row>
-    <row r="23" ht="41" spans="1:7">
+    <row r="23" ht="41" hidden="1" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>47.161</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>7.991</v>
       </c>
     </row>
-    <row r="26" ht="41" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>6.391</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>4.509</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:7">
+    <row r="28" ht="28" hidden="1" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>5.667</v>
       </c>
     </row>
-    <row r="29" ht="41" spans="1:7">
+    <row r="29" ht="41" hidden="1" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>5.935</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>2.613</v>
       </c>
     </row>
-    <row r="34" ht="41" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>33.063</v>
       </c>
     </row>
-    <row r="35" ht="41" spans="1:7">
+    <row r="35" ht="41" hidden="1" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>23.367</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>6.376</v>
       </c>
     </row>
-    <row r="37" ht="41" spans="1:7">
+    <row r="37" ht="41" hidden="1" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>8.774</v>
       </c>
     </row>
-    <row r="38" ht="28" spans="1:7">
+    <row r="38" ht="28" hidden="1" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>22.896</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>21.327</v>
       </c>
     </row>
-    <row r="40" ht="41" spans="1:7">
+    <row r="40" ht="41" hidden="1" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>8.459</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>4.795</v>
       </c>
     </row>
-    <row r="42" ht="55" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>12.031</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>12.848</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="1:7">
+    <row r="45" ht="28" hidden="1" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>8.876</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>47.542</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>6.242</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>6.002</v>
       </c>
     </row>
-    <row r="50" ht="28" spans="1:7">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>3.308</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>3.978</v>
       </c>
     </row>
-    <row r="52" ht="28" spans="1:7">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>12.643</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:7">
+    <row r="53" ht="28" hidden="1" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>146</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="1:7">
+    <row r="54" ht="28" hidden="1" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>149</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>4.535</v>
       </c>
     </row>
-    <row r="57" ht="28" spans="1:7">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>157</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>6.455</v>
       </c>
     </row>
-    <row r="58" ht="28" spans="1:7">
+    <row r="58" ht="28" hidden="1" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>5.067</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:7">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>165</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>19.35</v>
       </c>
     </row>
-    <row r="61" ht="41" spans="1:7">
+    <row r="61" ht="41" hidden="1" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>5.866</v>
       </c>
     </row>
-    <row r="63" ht="41" spans="1:7">
+    <row r="63" ht="41" hidden="1" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>172</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>4.631</v>
       </c>
     </row>
-    <row r="64" ht="28" spans="1:7">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>175</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>32.499</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="1:7">
+    <row r="66" ht="28" hidden="1" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>18.135</v>
       </c>
     </row>
-    <row r="67" ht="28" spans="1:7">
+    <row r="67" ht="28" hidden="1" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>183</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>21.399</v>
       </c>
     </row>
-    <row r="68" ht="28" spans="1:7">
+    <row r="68" ht="28" hidden="1" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>186</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>3.285</v>
       </c>
     </row>
-    <row r="69" ht="28" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>189</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>9.202</v>
       </c>
     </row>
-    <row r="71" ht="28" spans="1:7">
+    <row r="71" ht="28" hidden="1" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>193</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>7.766</v>
       </c>
     </row>
-    <row r="74" ht="28" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>200</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>13.366</v>
       </c>
     </row>
-    <row r="75" ht="28" spans="1:7">
+    <row r="75" ht="28" hidden="1" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>202</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>6.139</v>
       </c>
     </row>
-    <row r="76" ht="41" spans="1:7">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>204</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>10.04</v>
       </c>
     </row>
-    <row r="77" ht="41" spans="1:7">
+    <row r="77" ht="41" hidden="1" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>207</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>18.889</v>
       </c>
     </row>
-    <row r="78" ht="28" spans="1:7">
+    <row r="78" ht="28" hidden="1" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>50.872</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>213</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>3.098</v>
       </c>
     </row>
-    <row r="80" ht="41" spans="1:7">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>216</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>8.433</v>
       </c>
     </row>
-    <row r="81" ht="28" spans="1:7">
+    <row r="81" ht="28" hidden="1" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>218</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="82" ht="28" spans="1:7">
+    <row r="82" ht="28" hidden="1" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>220</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>5.776</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:7">
+    <row r="83" ht="28" hidden="1" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>222</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>4.749</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="1:7">
+    <row r="84" ht="28" hidden="1" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>225</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>11.919</v>
       </c>
     </row>
-    <row r="85" ht="41" spans="1:7">
+    <row r="85" ht="41" hidden="1" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>227</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>3.123</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>4.161</v>
       </c>
     </row>
-    <row r="87" ht="55" spans="1:7">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>231</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>7.563</v>
       </c>
     </row>
-    <row r="89" ht="28" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>236</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="28" spans="1:7">
+    <row r="90" ht="28" hidden="1" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>238</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>12.358</v>
       </c>
     </row>
-    <row r="91" ht="55" spans="1:7">
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>240</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>3.605</v>
       </c>
     </row>
-    <row r="92" ht="68" spans="1:7">
+    <row r="92" ht="68" hidden="1" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>10.345</v>
       </c>
     </row>
-    <row r="93" ht="41" spans="1:7">
+    <row r="93" ht="41" hidden="1" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>245</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>11.843</v>
       </c>
     </row>
-    <row r="94" ht="28" spans="1:7">
+    <row r="94" ht="28" hidden="1" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>4.475</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>24.526</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>254</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>2.597</v>
       </c>
     </row>
-    <row r="98" ht="41" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>257</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>7.318</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>259</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>21.324</v>
       </c>
     </row>
-    <row r="100" ht="28" spans="1:7">
+    <row r="100" ht="28" hidden="1" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>262</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>3.264</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:7">
+    <row r="101" ht="28" hidden="1" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>264</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>3.889</v>
       </c>
     </row>
-    <row r="102" ht="28" spans="1:7">
+    <row r="102" ht="28" hidden="1" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>267</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>6.324</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>272</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>2.817</v>
       </c>
     </row>
-    <row r="105" ht="28" spans="1:7">
+    <row r="105" ht="28" hidden="1" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>275</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>7.529</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" hidden="1" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>278</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>18.548</v>
       </c>
     </row>
-    <row r="107" ht="28" spans="1:7">
+    <row r="107" ht="28" hidden="1" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>281</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>6.309</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>286</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>2.203</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>288</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>13.726</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>291</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>16.323</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" hidden="1" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>293</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>39.691</v>
       </c>
     </row>
-    <row r="113" ht="28" spans="1:7">
+    <row r="113" ht="28" hidden="1" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>295</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>14.934</v>
       </c>
     </row>
-    <row r="114" ht="28" spans="1:7">
+    <row r="114" ht="28" hidden="1" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>297</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>3.873</v>
       </c>
     </row>
-    <row r="115" ht="28" spans="1:7">
+    <row r="115" ht="28" hidden="1" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>299</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>3.788</v>
       </c>
     </row>
-    <row r="116" ht="28" spans="1:7">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>302</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>8.565</v>
       </c>
     </row>
-    <row r="117" ht="41" spans="1:7">
+    <row r="117" ht="41" hidden="1" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>304</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>9.942</v>
       </c>
     </row>
-    <row r="118" ht="41" spans="1:7">
+    <row r="118" ht="41" hidden="1" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>306</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>6.252</v>
       </c>
     </row>
-    <row r="119" ht="28" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>308</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>5.477</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" hidden="1" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>310</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>42.713</v>
       </c>
     </row>
-    <row r="121" ht="41" spans="1:7">
+    <row r="121" ht="41" hidden="1" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>313</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>8.657</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" hidden="1" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>315</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>34.081</v>
       </c>
     </row>
-    <row r="123" ht="28" spans="1:7">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>318</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>3.584</v>
       </c>
     </row>
-    <row r="124" ht="28" spans="1:7">
+    <row r="124" ht="28" hidden="1" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>320</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>2.051</v>
       </c>
     </row>
-    <row r="125" ht="28" spans="1:7">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>323</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>16.088</v>
       </c>
     </row>
-    <row r="126" ht="41" spans="1:7">
+    <row r="126" ht="41" hidden="1" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>326</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>3.283</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>328</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>11.045</v>
       </c>
     </row>
-    <row r="128" ht="28" spans="1:7">
+    <row r="128" ht="28" hidden="1" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>330</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>3.408</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>333</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>9.792</v>
       </c>
     </row>
-    <row r="130" ht="28" spans="1:7">
+    <row r="130" ht="28" hidden="1" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>336</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>14.222</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>338</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>21.483</v>
       </c>
     </row>
-    <row r="132" ht="41" spans="1:7">
+    <row r="132" ht="41" hidden="1" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>341</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>3.977</v>
       </c>
     </row>
-    <row r="133" ht="28" spans="1:7">
+    <row r="133" ht="28" hidden="1" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>343</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>3.031</v>
       </c>
     </row>
-    <row r="134" ht="55" spans="1:7">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>346</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>3.379</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>348</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>12.283</v>
       </c>
     </row>
-    <row r="136" ht="55" spans="1:7">
+    <row r="136" ht="55" hidden="1" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>350</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>6.565</v>
       </c>
     </row>
-    <row r="137" ht="41" spans="1:7">
+    <row r="137" ht="41" hidden="1" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>12.524</v>
       </c>
     </row>
-    <row r="138" ht="28" spans="1:7">
+    <row r="138" ht="28" hidden="1" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>354</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>134.428</v>
       </c>
     </row>
-    <row r="139" ht="28" spans="1:7">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>357</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>7.691</v>
       </c>
     </row>
-    <row r="140" ht="28" spans="1:7">
+    <row r="140" ht="28" hidden="1" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>359</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>2.768</v>
       </c>
     </row>
-    <row r="141" ht="41" spans="1:7">
+    <row r="141" ht="41" hidden="1" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>361</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>9.657</v>
       </c>
     </row>
-    <row r="142" ht="41" spans="1:7">
+    <row r="142" ht="41" hidden="1" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>363</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>6.381</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>365</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>10.941</v>
       </c>
     </row>
-    <row r="145" ht="28" spans="1:7">
+    <row r="145" ht="28" hidden="1" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>371</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>15.105</v>
       </c>
     </row>
-    <row r="146" ht="28" spans="1:7">
+    <row r="146" ht="28" hidden="1" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>374</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>2.735</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" hidden="1" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>377</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>27.261</v>
       </c>
     </row>
-    <row r="148" ht="28" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>379</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>6.898</v>
       </c>
     </row>
-    <row r="149" ht="28" spans="1:7">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>381</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>7.522</v>
       </c>
     </row>
-    <row r="150" ht="28" spans="1:7">
+    <row r="150" ht="28" hidden="1" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>383</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>3.042</v>
       </c>
     </row>
-    <row r="151" ht="28" spans="1:7">
+    <row r="151" ht="28" hidden="1" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>385</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>57.922</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>388</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>3.813</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>394</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>9.357</v>
       </c>
     </row>
-    <row r="156" ht="28" spans="1:7">
+    <row r="156" ht="28" hidden="1" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>397</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>6.166</v>
       </c>
     </row>
-    <row r="157" ht="55" spans="1:7">
+    <row r="157" ht="55" hidden="1" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>399</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="158" ht="28" spans="1:7">
+    <row r="158" ht="28" hidden="1" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>401</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>6.155</v>
       </c>
     </row>
-    <row r="159" ht="55" spans="1:7">
+    <row r="159" ht="55" hidden="1" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>403</v>
       </c>
@@ -7213,7 +7216,7 @@
         <v>14.915</v>
       </c>
     </row>
-    <row r="160" ht="41" spans="1:7">
+    <row r="160" ht="41" hidden="1" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>405</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>8.923</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>408</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>13.895</v>
       </c>
     </row>
-    <row r="163" ht="41" spans="1:7">
+    <row r="163" ht="41" hidden="1" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>414</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>7.842</v>
       </c>
     </row>
-    <row r="164" ht="28" spans="1:7">
+    <row r="164" ht="28" hidden="1" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>416</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>13.611</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>418</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>19.688</v>
       </c>
     </row>
-    <row r="166" ht="41" spans="1:7">
+    <row r="166" ht="41" hidden="1" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>420</v>
       </c>
@@ -7397,7 +7400,7 @@
         <v>5.859</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>424</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>18.062</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>426</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>12.024</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>428</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>10.774</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>430</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>4.153</v>
       </c>
     </row>
-    <row r="172" ht="28" spans="1:7">
+    <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>432</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>2.731</v>
       </c>
     </row>
-    <row r="173" ht="41" spans="1:7">
+    <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>435</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>27.974</v>
       </c>
     </row>
-    <row r="174" ht="55" spans="1:7">
+    <row r="174" ht="55" hidden="1" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>437</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>5.504</v>
       </c>
     </row>
-    <row r="175" ht="28" spans="1:7">
+    <row r="175" ht="28" hidden="1" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>439</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>10.427</v>
       </c>
     </row>
-    <row r="177" ht="28" spans="1:7">
+    <row r="177" ht="28" hidden="1" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>444</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>6.957</v>
       </c>
     </row>
-    <row r="178" ht="28" spans="1:7">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>446</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>10.708</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>449</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>11.448</v>
       </c>
     </row>
-    <row r="180" ht="55" spans="1:7">
+    <row r="180" ht="55" hidden="1" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>452</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>4.806</v>
       </c>
     </row>
-    <row r="181" ht="28" spans="1:7">
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>454</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>6.081</v>
       </c>
     </row>
-    <row r="182" ht="28" spans="1:7">
+    <row r="182" ht="28" hidden="1" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>456</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>18.418</v>
       </c>
     </row>
-    <row r="183" ht="41" spans="1:7">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>458</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>4.321</v>
       </c>
     </row>
-    <row r="184" ht="28" spans="1:7">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>461</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>8.227</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>463</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>17.465</v>
       </c>
     </row>
-    <row r="186" ht="28" spans="1:7">
+    <row r="186" ht="28" hidden="1" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>465</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>468</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>19.317</v>
       </c>
     </row>
-    <row r="188" ht="28" spans="1:7">
+    <row r="188" ht="28" hidden="1" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>470</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>4.612</v>
       </c>
     </row>
-    <row r="189" ht="28" spans="1:7">
+    <row r="189" ht="28" hidden="1" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>472</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>8.643</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>475</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>3.026</v>
       </c>
     </row>
-    <row r="191" ht="41" spans="1:7">
+    <row r="191" ht="41" hidden="1" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>477</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>9.224</v>
       </c>
     </row>
-    <row r="192" ht="41" spans="1:7">
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>480</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>6.077</v>
       </c>
     </row>
-    <row r="193" ht="28" spans="1:7">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
         <v>483</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>9.932</v>
       </c>
     </row>
-    <row r="194" ht="28" spans="1:7">
+    <row r="194" ht="28" hidden="1" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>485</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="195" ht="28" spans="1:7">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>13.933</v>
       </c>
     </row>
-    <row r="196" ht="28" spans="1:7">
+    <row r="196" ht="28" hidden="1" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>490</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>2.789</v>
       </c>
     </row>
-    <row r="197" ht="28" spans="1:7">
+    <row r="197" ht="28" hidden="1" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>492</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>5.219</v>
       </c>
     </row>
-    <row r="198" ht="28" spans="1:7">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>494</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>8.521</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>497</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>18.974</v>
       </c>
     </row>
-    <row r="200" ht="28" spans="1:7">
+    <row r="200" ht="28" hidden="1" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>500</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>5.809</v>
       </c>
     </row>
-    <row r="201" ht="28" spans="1:7">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>502</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>7.777</v>
       </c>
     </row>
-    <row r="202" ht="28" spans="1:7">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>504</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>8.663</v>
       </c>
     </row>
-    <row r="203" ht="41" spans="1:7">
+    <row r="203" ht="41" hidden="1" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>507</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>12.007</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>509</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>17.596</v>
       </c>
     </row>
-    <row r="206" ht="28" spans="1:7">
+    <row r="206" ht="28" hidden="1" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>514</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>5.446</v>
       </c>
     </row>
-    <row r="207" ht="28" spans="1:7">
+    <row r="207" ht="28" hidden="1" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>517</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>13.479</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>530</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="213" ht="28" spans="1:7">
+    <row r="213" ht="28" hidden="1" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>532</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>6.489</v>
       </c>
     </row>
-    <row r="217" ht="28" spans="1:7">
+    <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>540</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>8.924</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>543</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>6.155</v>
       </c>
     </row>
-    <row r="219" ht="41" spans="1:7">
+    <row r="219" ht="41" hidden="1" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>545</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>125.126</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" hidden="1" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>547</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>33.66</v>
       </c>
     </row>
-    <row r="221" ht="55" spans="1:7">
+    <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>550</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>7.701</v>
       </c>
     </row>
-    <row r="222" ht="28" spans="1:7">
+    <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
         <v>553</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>21.467</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" hidden="1" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>555</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>21.958</v>
       </c>
     </row>
-    <row r="224" ht="28" spans="1:7">
+    <row r="224" ht="28" hidden="1" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>558</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>31.951</v>
       </c>
     </row>
-    <row r="226" ht="28" spans="1:7">
+    <row r="226" ht="28" hidden="1" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>562</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>6.867</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" hidden="1" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>565</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>5.802</v>
       </c>
     </row>
-    <row r="229" ht="41" spans="1:7">
+    <row r="229" ht="41" hidden="1" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>570</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>13.153</v>
       </c>
     </row>
-    <row r="230" ht="28" spans="1:7">
+    <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>573</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>10.166</v>
       </c>
     </row>
-    <row r="233" ht="28" spans="1:7">
+    <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
         <v>579</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>3.509</v>
       </c>
     </row>
-    <row r="234" ht="28" spans="1:7">
+    <row r="234" ht="28" hidden="1" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>582</v>
       </c>
@@ -8938,7 +8941,7 @@
         <v>21.425</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>584</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>12.837</v>
       </c>
     </row>
-    <row r="236" ht="28" spans="1:7">
+    <row r="236" ht="28" hidden="1" spans="1:7">
       <c r="A236" s="2" t="s">
         <v>586</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>4.36</v>
       </c>
     </row>
-    <row r="237" ht="28" spans="1:7">
+    <row r="237" ht="28" hidden="1" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>588</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>10.087</v>
       </c>
     </row>
-    <row r="238" ht="68" spans="1:7">
+    <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
         <v>590</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" hidden="1" spans="1:7">
       <c r="A239" s="2" t="s">
         <v>592</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="240" ht="28" spans="1:7">
+    <row r="240" ht="28" hidden="1" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>595</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>15.015</v>
       </c>
     </row>
-    <row r="241" ht="28" spans="1:7">
+    <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>597</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>7.906</v>
       </c>
     </row>
-    <row r="243" ht="28" spans="1:7">
+    <row r="243" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>601</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>5.595</v>
       </c>
     </row>
-    <row r="244" ht="28" spans="1:7">
+    <row r="244" ht="28" hidden="1" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>603</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>7.698</v>
       </c>
     </row>
-    <row r="245" ht="41" spans="1:7">
+    <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
         <v>606</v>
       </c>
@@ -9191,7 +9194,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="246" ht="28" spans="1:7">
+    <row r="246" ht="28" hidden="1" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>608</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" hidden="1" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>610</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>5.681</v>
       </c>
     </row>
-    <row r="250" ht="41" spans="1:7">
+    <row r="250" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>618</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>5.839</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" hidden="1" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>620</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>6.694</v>
       </c>
     </row>
-    <row r="252" ht="28" spans="1:7">
+    <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
         <v>623</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>15.862</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" hidden="1" spans="1:7">
       <c r="A253" s="2" t="s">
         <v>625</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>114.244</v>
       </c>
     </row>
-    <row r="254" ht="41" spans="1:7">
+    <row r="254" ht="41" hidden="1" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>627</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>3.504</v>
       </c>
     </row>
-    <row r="255" ht="41" spans="1:7">
+    <row r="255" spans="1:7">
       <c r="A255" s="2" t="s">
         <v>630</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>18.393</v>
       </c>
     </row>
-    <row r="257" ht="28" spans="1:7">
+    <row r="257" ht="28" hidden="1" spans="1:7">
       <c r="A257" s="2" t="s">
         <v>636</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>7.351</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" hidden="1" spans="1:7">
       <c r="A258" s="2" t="s">
         <v>638</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>4.806</v>
       </c>
     </row>
-    <row r="259" ht="28" spans="1:7">
+    <row r="259" ht="28" hidden="1" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>640</v>
       </c>
@@ -9513,7 +9516,7 @@
         <v>185.583</v>
       </c>
     </row>
-    <row r="260" ht="28" spans="1:7">
+    <row r="260" ht="28" hidden="1" spans="1:7">
       <c r="A260" s="2" t="s">
         <v>642</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>14.089</v>
       </c>
     </row>
-    <row r="261" ht="28" spans="1:7">
+    <row r="261" ht="28" hidden="1" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>644</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>4.809</v>
       </c>
     </row>
-    <row r="262" ht="28" spans="1:7">
+    <row r="262" spans="1:7">
       <c r="A262" s="2" t="s">
         <v>646</v>
       </c>
@@ -9582,7 +9585,7 @@
         <v>5.801</v>
       </c>
     </row>
-    <row r="263" ht="28" spans="1:7">
+    <row r="263" ht="28" hidden="1" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>648</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>6.514</v>
       </c>
     </row>
-    <row r="264" ht="28" spans="1:7">
+    <row r="264" ht="28" hidden="1" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>650</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>9.091</v>
       </c>
     </row>
-    <row r="265" ht="28" spans="1:7">
+    <row r="265" ht="28" hidden="1" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>652</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>6.588</v>
       </c>
     </row>
-    <row r="268" ht="41" spans="1:7">
+    <row r="268" ht="41" hidden="1" spans="1:7">
       <c r="A268" s="2" t="s">
         <v>658</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>39.956</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" hidden="1" spans="1:7">
       <c r="A269" s="2" t="s">
         <v>660</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>20.741</v>
       </c>
     </row>
-    <row r="270" ht="28" spans="1:7">
+    <row r="270" ht="28" hidden="1" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>662</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="271" ht="28" spans="1:7">
+    <row r="271" ht="28" hidden="1" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>665</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>26.341</v>
       </c>
     </row>
-    <row r="272" ht="41" spans="1:7">
+    <row r="272" spans="1:7">
       <c r="A272" s="2" t="s">
         <v>667</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="273" ht="28" spans="1:7">
+    <row r="273" ht="28" hidden="1" spans="1:7">
       <c r="A273" s="2" t="s">
         <v>669</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>15.962</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" hidden="1" spans="1:7">
       <c r="A274" s="2" t="s">
         <v>671</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>9.476</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" hidden="1" spans="1:7">
       <c r="A275" s="2" t="s">
         <v>674</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>47.149</v>
       </c>
     </row>
-    <row r="276" ht="28" spans="1:7">
+    <row r="276" ht="28" hidden="1" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>676</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>6.071</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" hidden="1" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>678</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>15.189</v>
       </c>
     </row>
-    <row r="278" ht="28" spans="1:7">
+    <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
         <v>680</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>4.729</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" hidden="1" spans="1:7">
       <c r="A279" s="2" t="s">
         <v>683</v>
       </c>
@@ -9973,7 +9976,7 @@
         <v>24.066</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>685</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>61.961</v>
       </c>
     </row>
-    <row r="282" ht="28" spans="1:7">
+    <row r="282" ht="28" hidden="1" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>689</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>10.782</v>
       </c>
     </row>
-    <row r="283" ht="28" spans="1:7">
+    <row r="283" ht="28" hidden="1" spans="1:7">
       <c r="A283" s="2" t="s">
         <v>691</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>3.735</v>
       </c>
     </row>
-    <row r="284" ht="28" spans="1:7">
+    <row r="284" spans="1:7">
       <c r="A284" s="2" t="s">
         <v>693</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>7.025</v>
       </c>
     </row>
-    <row r="285" ht="28" spans="1:7">
+    <row r="285" ht="28" hidden="1" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>696</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>8.269</v>
       </c>
     </row>
-    <row r="286" ht="28" spans="1:7">
+    <row r="286" spans="1:7">
       <c r="A286" s="2" t="s">
         <v>698</v>
       </c>
@@ -10134,7 +10137,7 @@
         <v>4.159</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" hidden="1" spans="1:7">
       <c r="A287" s="2" t="s">
         <v>700</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>2.698</v>
       </c>
     </row>
-    <row r="288" ht="28" spans="1:7">
+    <row r="288" ht="28" hidden="1" spans="1:7">
       <c r="A288" s="2" t="s">
         <v>702</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>7.447</v>
       </c>
     </row>
-    <row r="289" ht="41" spans="1:7">
+    <row r="289" ht="41" hidden="1" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>704</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>8.039</v>
       </c>
     </row>
-    <row r="290" ht="28" spans="1:7">
+    <row r="290" ht="28" hidden="1" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>706</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>39.735</v>
       </c>
     </row>
-    <row r="291" ht="28" spans="1:7">
+    <row r="291" ht="28" hidden="1" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>708</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>20.841</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" hidden="1" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>711</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>49.637</v>
       </c>
     </row>
-    <row r="293" ht="28" spans="1:7">
+    <row r="293" ht="28" hidden="1" spans="1:7">
       <c r="A293" s="2" t="s">
         <v>713</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>46.999</v>
       </c>
     </row>
-    <row r="294" ht="28" spans="1:7">
+    <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
         <v>715</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" hidden="1" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>724</v>
       </c>
@@ -10433,7 +10436,7 @@
         <v>4.962</v>
       </c>
     </row>
-    <row r="300" ht="28" spans="1:7">
+    <row r="300" spans="1:7">
       <c r="A300" s="2" t="s">
         <v>729</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>8.989</v>
       </c>
     </row>
-    <row r="301" ht="28" spans="1:7">
+    <row r="301" ht="28" hidden="1" spans="1:7">
       <c r="A301" s="2" t="s">
         <v>732</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>217.539</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" hidden="1" spans="1:7">
       <c r="A302" s="2" t="s">
         <v>734</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>5.006</v>
       </c>
     </row>
-    <row r="303" ht="28" spans="1:7">
+    <row r="303" ht="28" hidden="1" spans="1:7">
       <c r="A303" s="2" t="s">
         <v>737</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>19.33</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" hidden="1" spans="1:7">
       <c r="A304" s="2" t="s">
         <v>739</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>9.357</v>
       </c>
     </row>
-    <row r="305" ht="28" spans="1:7">
+    <row r="305" ht="28" hidden="1" spans="1:7">
       <c r="A305" s="2" t="s">
         <v>741</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>61.513</v>
       </c>
     </row>
-    <row r="306" ht="28" spans="1:7">
+    <row r="306" ht="28" hidden="1" spans="1:7">
       <c r="A306" s="2" t="s">
         <v>743</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>4.328</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" s="2" t="s">
         <v>745</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>7.787</v>
       </c>
     </row>
-    <row r="308" ht="41" spans="1:7">
+    <row r="308" spans="1:7">
       <c r="A308" s="2" t="s">
         <v>747</v>
       </c>
@@ -10732,7 +10735,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" hidden="1" spans="1:7">
       <c r="A313" s="2" t="s">
         <v>759</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>15.325</v>
       </c>
     </row>
-    <row r="314" ht="28" spans="1:7">
+    <row r="314" spans="1:7">
       <c r="A314" s="2" t="s">
         <v>761</v>
       </c>
@@ -10778,7 +10781,7 @@
         <v>7.882</v>
       </c>
     </row>
-    <row r="315" ht="28" spans="1:7">
+    <row r="315" ht="28" hidden="1" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>764</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>67.061</v>
       </c>
     </row>
-    <row r="316" ht="28" spans="1:7">
+    <row r="316" ht="28" hidden="1" spans="1:7">
       <c r="A316" s="2" t="s">
         <v>766</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" ht="28" spans="1:7">
+    <row r="317" ht="28" hidden="1" spans="1:7">
       <c r="A317" s="2" t="s">
         <v>769</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>6.776</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" hidden="1" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>771</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="319" ht="28" spans="1:7">
+    <row r="319" spans="1:7">
       <c r="A319" s="2" t="s">
         <v>773</v>
       </c>
@@ -10893,7 +10896,7 @@
         <v>9.213</v>
       </c>
     </row>
-    <row r="320" ht="28" spans="1:7">
+    <row r="320" ht="28" hidden="1" spans="1:7">
       <c r="A320" s="2" t="s">
         <v>775</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>44.147</v>
       </c>
     </row>
-    <row r="321" ht="28" spans="1:7">
+    <row r="321" ht="28" hidden="1" spans="1:7">
       <c r="A321" s="2" t="s">
         <v>777</v>
       </c>
@@ -10939,7 +10942,7 @@
         <v>21.718</v>
       </c>
     </row>
-    <row r="322" ht="28" spans="1:7">
+    <row r="322" spans="1:7">
       <c r="A322" s="2" t="s">
         <v>779</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>53.833</v>
       </c>
     </row>
-    <row r="323" ht="28" spans="1:7">
+    <row r="323" ht="28" hidden="1" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>781</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>3.277</v>
       </c>
     </row>
-    <row r="325" ht="28" spans="1:7">
+    <row r="325" ht="28" hidden="1" spans="1:7">
       <c r="A325" s="2" t="s">
         <v>786</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>46.665</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>788</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>26.735</v>
       </c>
     </row>
-    <row r="327" ht="28" spans="1:7">
+    <row r="327" spans="1:7">
       <c r="A327" s="2" t="s">
         <v>790</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>9.453</v>
       </c>
     </row>
-    <row r="328" ht="28" spans="1:7">
+    <row r="328" ht="28" hidden="1" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>793</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>31.303</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" hidden="1" spans="1:7">
       <c r="A330" s="2" t="s">
         <v>798</v>
       </c>
@@ -11146,7 +11149,7 @@
         <v>59.558</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" hidden="1" spans="1:7">
       <c r="A331" s="2" t="s">
         <v>801</v>
       </c>
@@ -11169,7 +11172,7 @@
         <v>69.286</v>
       </c>
     </row>
-    <row r="332" ht="41" spans="1:7">
+    <row r="332" ht="41" hidden="1" spans="1:7">
       <c r="A332" s="2" t="s">
         <v>804</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>6.493</v>
       </c>
     </row>
-    <row r="333" ht="28" spans="1:7">
+    <row r="333" ht="28" hidden="1" spans="1:7">
       <c r="A333" s="2" t="s">
         <v>807</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>12.605</v>
       </c>
     </row>
-    <row r="334" ht="28" spans="1:7">
+    <row r="334" spans="1:7">
       <c r="A334" s="2" t="s">
         <v>809</v>
       </c>
@@ -11238,7 +11241,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="335" ht="41" spans="1:7">
+    <row r="335" ht="41" hidden="1" spans="1:7">
       <c r="A335" s="2" t="s">
         <v>811</v>
       </c>
@@ -11261,7 +11264,7 @@
         <v>11.402</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" hidden="1" spans="1:7">
       <c r="A336" s="2" t="s">
         <v>813</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>9.242</v>
       </c>
     </row>
-    <row r="337" ht="28" spans="1:7">
+    <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>815</v>
       </c>
@@ -11377,6 +11380,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A340">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="0*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220621.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220621.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11500"/>
+    <workbookView windowWidth="26500" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -2497,10 +2497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2523,6 +2523,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2539,14 +2561,46 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2560,13 +2614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2577,22 +2624,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2607,32 +2653,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2643,31 +2666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2694,150 +2694,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2850,7 +2706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2862,7 +2730,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,7 +2772,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,6 +2906,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2923,21 +2932,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2974,6 +2968,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2983,168 +2986,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3538,15 +3538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B248" sqref="B248"/>
+      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -3582,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>5.174</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>4.915</v>
       </c>
     </row>
-    <row r="6" ht="41" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>12.806</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>4.493</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="10" ht="28" hidden="1" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>9.172</v>
       </c>
     </row>
-    <row r="11" ht="55" hidden="1" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>7.938</v>
       </c>
     </row>
-    <row r="14" ht="55" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>6.614</v>
       </c>
     </row>
-    <row r="15" ht="55" hidden="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>7.559</v>
       </c>
     </row>
-    <row r="16" ht="41" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>2.872</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>7.926</v>
       </c>
     </row>
-    <row r="19" ht="28" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>16.573</v>
       </c>
     </row>
-    <row r="21" ht="41" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>5.732</v>
       </c>
     </row>
-    <row r="23" ht="41" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>6.391</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>4.509</v>
       </c>
     </row>
-    <row r="28" ht="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>5.667</v>
       </c>
     </row>
-    <row r="29" ht="41" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>5.935</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>20.469</v>
       </c>
     </row>
-    <row r="33" ht="28" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>33.063</v>
       </c>
     </row>
-    <row r="35" ht="41" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>23.367</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>6.376</v>
       </c>
     </row>
-    <row r="37" ht="41" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>8.774</v>
       </c>
     </row>
-    <row r="38" ht="28" hidden="1" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>22.896</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:7">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>21.327</v>
       </c>
     </row>
-    <row r="40" ht="41" hidden="1" spans="1:7">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>12.031</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>12.848</v>
       </c>
     </row>
-    <row r="45" ht="28" hidden="1" spans="1:7">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>8.876</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>47.542</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:7">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>3.308</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:7">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>12.643</v>
       </c>
     </row>
-    <row r="53" ht="28" hidden="1" spans="1:7">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>146</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="54" ht="28" hidden="1" spans="1:7">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>149</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>6.537</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>154</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>6.455</v>
       </c>
     </row>
-    <row r="58" ht="28" hidden="1" spans="1:7">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>19.35</v>
       </c>
     </row>
-    <row r="61" ht="41" hidden="1" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>5.866</v>
       </c>
     </row>
-    <row r="63" ht="41" hidden="1" spans="1:7">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>172</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>32.499</v>
       </c>
     </row>
-    <row r="66" ht="28" hidden="1" spans="1:7">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>18.135</v>
       </c>
     </row>
-    <row r="67" ht="28" hidden="1" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>183</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>21.399</v>
       </c>
     </row>
-    <row r="68" ht="28" hidden="1" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>186</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>9.202</v>
       </c>
     </row>
-    <row r="71" ht="28" hidden="1" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>193</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>13.366</v>
       </c>
     </row>
-    <row r="75" ht="28" hidden="1" spans="1:7">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>202</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>10.04</v>
       </c>
     </row>
-    <row r="77" ht="41" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>207</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>18.889</v>
       </c>
     </row>
-    <row r="78" ht="28" hidden="1" spans="1:7">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>210</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>50.872</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>213</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>8.433</v>
       </c>
     </row>
-    <row r="81" ht="28" hidden="1" spans="1:7">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>218</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="82" ht="28" hidden="1" spans="1:7">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>220</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>5.776</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>222</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>4.749</v>
       </c>
     </row>
-    <row r="84" ht="28" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>225</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>11.919</v>
       </c>
     </row>
-    <row r="85" ht="41" hidden="1" spans="1:7">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>227</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>3.123</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:7">
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>7.791</v>
       </c>
     </row>
-    <row r="88" ht="55" spans="1:7">
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>233</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="28" hidden="1" spans="1:7">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>238</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>3.605</v>
       </c>
     </row>
-    <row r="92" ht="68" hidden="1" spans="1:7">
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>242</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>10.345</v>
       </c>
     </row>
-    <row r="93" ht="41" hidden="1" spans="1:7">
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>245</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>11.843</v>
       </c>
     </row>
-    <row r="94" ht="28" hidden="1" spans="1:7">
+    <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>4.475</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:7">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:7">
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>252</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>24.526</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:7">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>254</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>7.318</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:7">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>259</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>21.324</v>
       </c>
     </row>
-    <row r="100" ht="28" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>262</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>3.264</v>
       </c>
     </row>
-    <row r="101" ht="28" hidden="1" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>264</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>3.889</v>
       </c>
     </row>
-    <row r="102" ht="28" hidden="1" spans="1:7">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>267</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>6.324</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>272</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>2.817</v>
       </c>
     </row>
-    <row r="105" ht="28" hidden="1" spans="1:7">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>275</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>7.529</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:7">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>278</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>18.548</v>
       </c>
     </row>
-    <row r="107" ht="28" hidden="1" spans="1:7">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>281</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>6.309</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:7">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>286</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>2.203</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>288</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>13.726</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:7">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>291</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>16.323</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:7">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>293</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>39.691</v>
       </c>
     </row>
-    <row r="113" ht="28" hidden="1" spans="1:7">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>295</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>14.934</v>
       </c>
     </row>
-    <row r="114" ht="28" hidden="1" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>297</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>3.873</v>
       </c>
     </row>
-    <row r="115" ht="28" hidden="1" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>299</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>8.565</v>
       </c>
     </row>
-    <row r="117" ht="41" hidden="1" spans="1:7">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>304</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>9.942</v>
       </c>
     </row>
-    <row r="118" ht="41" hidden="1" spans="1:7">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>306</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>5.477</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>310</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>42.713</v>
       </c>
     </row>
-    <row r="121" ht="41" hidden="1" spans="1:7">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>313</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>8.657</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:7">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>315</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>3.584</v>
       </c>
     </row>
-    <row r="124" ht="28" hidden="1" spans="1:7">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>320</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>16.088</v>
       </c>
     </row>
-    <row r="126" ht="41" hidden="1" spans="1:7">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>326</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>3.283</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:7">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>328</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>11.045</v>
       </c>
     </row>
-    <row r="128" ht="28" hidden="1" spans="1:7">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>330</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>3.408</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>333</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>9.792</v>
       </c>
     </row>
-    <row r="130" ht="28" hidden="1" spans="1:7">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>336</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>14.222</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:7">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>338</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>21.483</v>
       </c>
     </row>
-    <row r="132" ht="41" hidden="1" spans="1:7">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>341</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>3.977</v>
       </c>
     </row>
-    <row r="133" ht="28" hidden="1" spans="1:7">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>343</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>3.379</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:7">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>348</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>12.283</v>
       </c>
     </row>
-    <row r="136" ht="55" hidden="1" spans="1:7">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>350</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>6.565</v>
       </c>
     </row>
-    <row r="137" ht="41" hidden="1" spans="1:7">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>12.524</v>
       </c>
     </row>
-    <row r="138" ht="28" hidden="1" spans="1:7">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>354</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>7.691</v>
       </c>
     </row>
-    <row r="140" ht="28" hidden="1" spans="1:7">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>359</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>2.768</v>
       </c>
     </row>
-    <row r="141" ht="41" hidden="1" spans="1:7">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>361</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>9.657</v>
       </c>
     </row>
-    <row r="142" ht="41" hidden="1" spans="1:7">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>363</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>6.381</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:7">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>365</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>10.941</v>
       </c>
     </row>
-    <row r="145" ht="28" hidden="1" spans="1:7">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>371</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>15.105</v>
       </c>
     </row>
-    <row r="146" ht="28" hidden="1" spans="1:7">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>374</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>2.735</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:7">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>377</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>7.522</v>
       </c>
     </row>
-    <row r="150" ht="28" hidden="1" spans="1:7">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>383</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>3.042</v>
       </c>
     </row>
-    <row r="151" ht="28" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>385</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>57.922</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>388</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>3.813</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>394</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>9.357</v>
       </c>
     </row>
-    <row r="156" ht="28" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>397</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>6.166</v>
       </c>
     </row>
-    <row r="157" ht="55" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>399</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="158" ht="28" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>401</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>6.155</v>
       </c>
     </row>
-    <row r="159" ht="55" hidden="1" spans="1:7">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>403</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>14.915</v>
       </c>
     </row>
-    <row r="160" ht="41" hidden="1" spans="1:7">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>405</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>8.923</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>408</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>13.895</v>
       </c>
     </row>
-    <row r="163" ht="41" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>414</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>7.842</v>
       </c>
     </row>
-    <row r="164" ht="28" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>416</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>13.611</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>418</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>19.688</v>
       </c>
     </row>
-    <row r="166" ht="41" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>420</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>5.859</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:7">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>424</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>18.062</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:7">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>426</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>12.024</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:7">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>428</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>10.774</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:7">
+    <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>430</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>27.974</v>
       </c>
     </row>
-    <row r="174" ht="55" hidden="1" spans="1:7">
+    <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>437</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>5.504</v>
       </c>
     </row>
-    <row r="175" ht="28" hidden="1" spans="1:7">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>439</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>10.427</v>
       </c>
     </row>
-    <row r="177" ht="28" hidden="1" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>444</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>10.708</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:7">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>449</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>11.448</v>
       </c>
     </row>
-    <row r="180" ht="55" hidden="1" spans="1:7">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>452</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>6.081</v>
       </c>
     </row>
-    <row r="182" ht="28" hidden="1" spans="1:7">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>456</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>8.227</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:7">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>463</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>17.465</v>
       </c>
     </row>
-    <row r="186" ht="28" hidden="1" spans="1:7">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>465</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:7">
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>468</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>19.317</v>
       </c>
     </row>
-    <row r="188" ht="28" hidden="1" spans="1:7">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>470</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>4.612</v>
       </c>
     </row>
-    <row r="189" ht="28" hidden="1" spans="1:7">
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>472</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>8.643</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:7">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>475</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>3.026</v>
       </c>
     </row>
-    <row r="191" ht="41" hidden="1" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>477</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>9.932</v>
       </c>
     </row>
-    <row r="194" ht="28" hidden="1" spans="1:7">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>485</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>13.933</v>
       </c>
     </row>
-    <row r="196" ht="28" hidden="1" spans="1:7">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>490</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>2.789</v>
       </c>
     </row>
-    <row r="197" ht="28" hidden="1" spans="1:7">
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>492</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>8.521</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:7">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>497</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>18.974</v>
       </c>
     </row>
-    <row r="200" ht="28" hidden="1" spans="1:7">
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>500</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>8.663</v>
       </c>
     </row>
-    <row r="203" ht="41" hidden="1" spans="1:7">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>507</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>12.007</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:7">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>509</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>17.596</v>
       </c>
     </row>
-    <row r="206" ht="28" hidden="1" spans="1:7">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>514</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>5.446</v>
       </c>
     </row>
-    <row r="207" ht="28" hidden="1" spans="1:7">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>517</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="209" ht="55" spans="1:7">
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
         <v>522</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>4.555</v>
       </c>
     </row>
-    <row r="210" ht="28" spans="1:7">
+    <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>525</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>13.479</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:7">
+    <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>530</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="213" ht="28" hidden="1" spans="1:7">
+    <row r="213" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>532</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>5.129</v>
       </c>
     </row>
-    <row r="215" ht="28" spans="1:7">
+    <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>536</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>8.924</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:7">
+    <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>543</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>6.155</v>
       </c>
     </row>
-    <row r="219" ht="41" hidden="1" spans="1:7">
+    <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>545</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>125.126</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:7">
+    <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>547</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>21.467</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:7">
+    <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>555</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>21.958</v>
       </c>
     </row>
-    <row r="224" ht="28" hidden="1" spans="1:7">
+    <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>558</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>31.951</v>
       </c>
     </row>
-    <row r="226" ht="28" hidden="1" spans="1:7">
+    <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>562</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>6.867</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:7">
+    <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>565</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>5.802</v>
       </c>
     </row>
-    <row r="229" ht="41" hidden="1" spans="1:7">
+    <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>570</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>3.471</v>
       </c>
     </row>
-    <row r="231" ht="55" spans="1:7">
+    <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
         <v>575</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>110.537</v>
       </c>
     </row>
-    <row r="232" ht="28" spans="1:7">
+    <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
         <v>577</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>3.509</v>
       </c>
     </row>
-    <row r="234" ht="28" hidden="1" spans="1:7">
+    <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>582</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>21.425</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:7">
+    <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>584</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>12.837</v>
       </c>
     </row>
-    <row r="236" ht="28" hidden="1" spans="1:7">
+    <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
         <v>586</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>4.36</v>
       </c>
     </row>
-    <row r="237" ht="28" hidden="1" spans="1:7">
+    <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>588</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:7">
+    <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
         <v>592</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="240" ht="28" hidden="1" spans="1:7">
+    <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>595</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>11.515</v>
       </c>
     </row>
-    <row r="242" ht="28" spans="1:7">
+    <row r="242" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>599</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>5.595</v>
       </c>
     </row>
-    <row r="244" ht="28" hidden="1" spans="1:7">
+    <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>603</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="246" ht="28" hidden="1" spans="1:7">
+    <row r="246" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>608</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:7">
+    <row r="247" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>610</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>9.597</v>
       </c>
     </row>
-    <row r="249" ht="28" spans="1:7">
+    <row r="249" spans="1:7">
       <c r="A249" s="2" t="s">
         <v>616</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>5.839</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:7">
+    <row r="251" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>620</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>15.862</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:7">
+    <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
         <v>625</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>114.244</v>
       </c>
     </row>
-    <row r="254" ht="41" hidden="1" spans="1:7">
+    <row r="254" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>627</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>18.393</v>
       </c>
     </row>
-    <row r="257" ht="28" hidden="1" spans="1:7">
+    <row r="257" spans="1:7">
       <c r="A257" s="2" t="s">
         <v>636</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>7.351</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:7">
+    <row r="258" spans="1:7">
       <c r="A258" s="2" t="s">
         <v>638</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>4.806</v>
       </c>
     </row>
-    <row r="259" ht="28" hidden="1" spans="1:7">
+    <row r="259" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>640</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>185.583</v>
       </c>
     </row>
-    <row r="260" ht="28" hidden="1" spans="1:7">
+    <row r="260" spans="1:7">
       <c r="A260" s="2" t="s">
         <v>642</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>14.089</v>
       </c>
     </row>
-    <row r="261" ht="28" hidden="1" spans="1:7">
+    <row r="261" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>644</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>5.801</v>
       </c>
     </row>
-    <row r="263" ht="28" hidden="1" spans="1:7">
+    <row r="263" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>648</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>6.514</v>
       </c>
     </row>
-    <row r="264" ht="28" hidden="1" spans="1:7">
+    <row r="264" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>650</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>9.091</v>
       </c>
     </row>
-    <row r="265" ht="28" hidden="1" spans="1:7">
+    <row r="265" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>652</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>6.588</v>
       </c>
     </row>
-    <row r="268" ht="41" hidden="1" spans="1:7">
+    <row r="268" spans="1:7">
       <c r="A268" s="2" t="s">
         <v>658</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>39.956</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:7">
+    <row r="269" spans="1:7">
       <c r="A269" s="2" t="s">
         <v>660</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>20.741</v>
       </c>
     </row>
-    <row r="270" ht="28" hidden="1" spans="1:7">
+    <row r="270" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>662</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="271" ht="28" hidden="1" spans="1:7">
+    <row r="271" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>665</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="273" ht="28" hidden="1" spans="1:7">
+    <row r="273" spans="1:7">
       <c r="A273" s="2" t="s">
         <v>669</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>15.962</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:7">
+    <row r="274" spans="1:7">
       <c r="A274" s="2" t="s">
         <v>671</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>9.476</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:7">
+    <row r="275" spans="1:7">
       <c r="A275" s="2" t="s">
         <v>674</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>47.149</v>
       </c>
     </row>
-    <row r="276" ht="28" hidden="1" spans="1:7">
+    <row r="276" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>676</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>6.071</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:7">
+    <row r="277" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>678</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>4.729</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:7">
+    <row r="279" spans="1:7">
       <c r="A279" s="2" t="s">
         <v>683</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>24.066</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:7">
+    <row r="280" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>685</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>61.961</v>
       </c>
     </row>
-    <row r="282" ht="28" hidden="1" spans="1:7">
+    <row r="282" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>689</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>10.782</v>
       </c>
     </row>
-    <row r="283" ht="28" hidden="1" spans="1:7">
+    <row r="283" spans="1:7">
       <c r="A283" s="2" t="s">
         <v>691</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>7.025</v>
       </c>
     </row>
-    <row r="285" ht="28" hidden="1" spans="1:7">
+    <row r="285" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>696</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>4.159</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:7">
+    <row r="287" spans="1:7">
       <c r="A287" s="2" t="s">
         <v>700</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>2.698</v>
       </c>
     </row>
-    <row r="288" ht="28" hidden="1" spans="1:7">
+    <row r="288" spans="1:7">
       <c r="A288" s="2" t="s">
         <v>702</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>7.447</v>
       </c>
     </row>
-    <row r="289" ht="41" hidden="1" spans="1:7">
+    <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>704</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>8.039</v>
       </c>
     </row>
-    <row r="290" ht="28" hidden="1" spans="1:7">
+    <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>706</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>39.735</v>
       </c>
     </row>
-    <row r="291" ht="28" hidden="1" spans="1:7">
+    <row r="291" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>708</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>20.841</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:7">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>711</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>49.637</v>
       </c>
     </row>
-    <row r="293" ht="28" hidden="1" spans="1:7">
+    <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
         <v>713</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>8.852</v>
       </c>
     </row>
-    <row r="295" ht="41" spans="1:7">
+    <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
         <v>717</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>9.362</v>
       </c>
     </row>
-    <row r="296" ht="28" spans="1:7">
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
         <v>719</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:7">
+    <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>724</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>8.989</v>
       </c>
     </row>
-    <row r="301" ht="28" hidden="1" spans="1:7">
+    <row r="301" spans="1:7">
       <c r="A301" s="2" t="s">
         <v>732</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>217.539</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:7">
+    <row r="302" spans="1:7">
       <c r="A302" s="2" t="s">
         <v>734</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>5.006</v>
       </c>
     </row>
-    <row r="303" ht="28" hidden="1" spans="1:7">
+    <row r="303" spans="1:7">
       <c r="A303" s="2" t="s">
         <v>737</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>19.33</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:7">
+    <row r="304" spans="1:7">
       <c r="A304" s="2" t="s">
         <v>739</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>9.357</v>
       </c>
     </row>
-    <row r="305" ht="28" hidden="1" spans="1:7">
+    <row r="305" spans="1:7">
       <c r="A305" s="2" t="s">
         <v>741</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>61.513</v>
       </c>
     </row>
-    <row r="306" ht="28" hidden="1" spans="1:7">
+    <row r="306" spans="1:7">
       <c r="A306" s="2" t="s">
         <v>743</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>4.328</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:7">
+    <row r="307" spans="1:7">
       <c r="A307" s="2" t="s">
         <v>745</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>3.894</v>
       </c>
     </row>
-    <row r="311" ht="28" spans="1:7">
+    <row r="311" spans="1:7">
       <c r="A311" s="2" t="s">
         <v>754</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>4.968</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:7">
+    <row r="313" spans="1:7">
       <c r="A313" s="2" t="s">
         <v>759</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>7.882</v>
       </c>
     </row>
-    <row r="315" ht="28" hidden="1" spans="1:7">
+    <row r="315" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>764</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>67.061</v>
       </c>
     </row>
-    <row r="316" ht="28" hidden="1" spans="1:7">
+    <row r="316" spans="1:7">
       <c r="A316" s="2" t="s">
         <v>766</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="317" ht="28" hidden="1" spans="1:7">
+    <row r="317" spans="1:7">
       <c r="A317" s="2" t="s">
         <v>769</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>6.776</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:7">
+    <row r="318" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>771</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>9.213</v>
       </c>
     </row>
-    <row r="320" ht="28" hidden="1" spans="1:7">
+    <row r="320" spans="1:7">
       <c r="A320" s="2" t="s">
         <v>775</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>44.147</v>
       </c>
     </row>
-    <row r="321" ht="28" hidden="1" spans="1:7">
+    <row r="321" spans="1:7">
       <c r="A321" s="2" t="s">
         <v>777</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>53.833</v>
       </c>
     </row>
-    <row r="323" ht="28" hidden="1" spans="1:7">
+    <row r="323" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>781</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>3.277</v>
       </c>
     </row>
-    <row r="325" ht="28" hidden="1" spans="1:7">
+    <row r="325" spans="1:7">
       <c r="A325" s="2" t="s">
         <v>786</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>46.665</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:7">
+    <row r="326" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>788</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>9.453</v>
       </c>
     </row>
-    <row r="328" ht="28" hidden="1" spans="1:7">
+    <row r="328" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>793</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>31.303</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:7">
+    <row r="330" spans="1:7">
       <c r="A330" s="2" t="s">
         <v>798</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>59.558</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:7">
+    <row r="331" spans="1:7">
       <c r="A331" s="2" t="s">
         <v>801</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>69.286</v>
       </c>
     </row>
-    <row r="332" ht="41" hidden="1" spans="1:7">
+    <row r="332" spans="1:7">
       <c r="A332" s="2" t="s">
         <v>804</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>6.493</v>
       </c>
     </row>
-    <row r="333" ht="28" hidden="1" spans="1:7">
+    <row r="333" spans="1:7">
       <c r="A333" s="2" t="s">
         <v>807</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>4.19</v>
       </c>
     </row>
-    <row r="335" ht="41" hidden="1" spans="1:7">
+    <row r="335" spans="1:7">
       <c r="A335" s="2" t="s">
         <v>811</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>11.402</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:7">
+    <row r="336" spans="1:7">
       <c r="A336" s="2" t="s">
         <v>813</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>15.073</v>
       </c>
     </row>
-    <row r="338" ht="68" spans="1:7">
+    <row r="338" spans="1:7">
       <c r="A338" s="2" t="s">
         <v>817</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>16.614</v>
       </c>
     </row>
-    <row r="339" ht="28" spans="1:7">
+    <row r="339" spans="1:7">
       <c r="A339" s="2" t="s">
         <v>819</v>
       </c>
@@ -11380,13 +11380,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A340">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="0*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
